--- a/inst/extdata/licor_for_gm_site11.xlsx
+++ b/inst/extdata/licor_for_gm_site11.xlsx
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:HC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:211" x14ac:dyDescent="0.3">
@@ -3592,11 +3592,11 @@
       </c>
       <c r="O17">
         <f t="shared" ref="O17:O28" si="4">((U17-K17/2)*N17-M17)/(U17+K17/2)</f>
-        <v>293.12368220297856</v>
+        <v>286.76631084529788</v>
       </c>
       <c r="P17">
         <f t="shared" ref="P17:P28" si="5">O17*(BC17+BD17)/1000</f>
-        <v>29.0439891599754</v>
+        <v>28.414072725347115</v>
       </c>
       <c r="Q17">
         <f t="shared" ref="Q17:Q28" si="6">(AV17 - IF(AJ17&gt;1, M17*AQ17*100/(AL17*BJ17), 0))*(BC17+BD17)/1000</f>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="R17">
         <f t="shared" ref="R17:R28" si="7">2/((1/T17-1/S17)+SIGN(T17)*SQRT((1/T17-1/S17)*(1/T17-1/S17) + 4*AR17/((AR17+1)*(AR17+1))*(2*1/T17*1/S17-1/S17*1/S17)))</f>
-        <v>0.47768783313028246</v>
+        <v>0.4517439786988775</v>
       </c>
       <c r="S17">
         <f t="shared" ref="S17:S28" si="8">IF(LEFT(AS17,1)&lt;&gt;"0",IF(LEFT(AS17,1)="1",3,AT17),$D$5+$E$5*(BJ17*BC17/($K$5*1000))+$F$5*(BJ17*BC17/($K$5*1000))*MAX(MIN(AQ17,$J$5),$I$5)*MAX(MIN(AQ17,$J$5),$I$5)+$G$5*MAX(MIN(AQ17,$J$5),$I$5)*(BJ17*BC17/($K$5*1000))+$H$5*(BJ17*BC17/($K$5*1000))*(BJ17*BC17/($K$5*1000)))</f>
@@ -3612,11 +3612,11 @@
       </c>
       <c r="T17">
         <f t="shared" ref="T17:T28" si="9">K17*(1000-(1000*0.61365*EXP(17.502*X17/(240.97+X17))/(BC17+BD17)+AX17)/2)/(1000*0.61365*EXP(17.502*X17/(240.97+X17))/(BC17+BD17)-AX17)</f>
-        <v>0.42086954753820521</v>
+        <v>0.40057727476532651</v>
       </c>
       <c r="U17">
         <f t="shared" ref="U17:U28" si="10">1/((AR17+1)/(R17/1.6)+1/(S17/1.37)) + AR17/((AR17+1)/(R17/1.6) + AR17/(S17/1.37))</f>
-        <v>0.26758308435364309</v>
+        <v>0.2544733168415001</v>
       </c>
       <c r="V17">
         <f t="shared" ref="V17:V28" si="11">(AM17*AP17)</f>
@@ -3628,11 +3628,11 @@
       </c>
       <c r="X17">
         <f t="shared" ref="X17:X28" si="13">($C$7*BF17+$D$7*BG17+$E$7*W17)</f>
-        <v>27.82642211301005</v>
+        <v>28.0061</v>
       </c>
       <c r="Y17">
         <f t="shared" ref="Y17:Y28" si="14">0.61365*EXP(17.502*X17/(240.97+X17))</f>
-        <v>3.7566088003547504</v>
+        <v>3.7961893682261012</v>
       </c>
       <c r="Z17">
         <f t="shared" ref="Z17:Z28" si="15">(AA17/AB17*100)</f>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="AC17">
         <f t="shared" ref="AC17:AC28" si="18">(Y17-AX17*(BC17+BD17)/1000)</f>
-        <v>0.7847005221818506</v>
+        <v>0.82428109005320138</v>
       </c>
       <c r="AD17">
         <f t="shared" ref="AD17:AD28" si="19">(-K17*44100)</f>
@@ -3656,15 +3656,15 @@
       </c>
       <c r="AE17">
         <f t="shared" ref="AE17:AE28" si="20">2*29.3*S17*0.92*(BE17-X17)</f>
-        <v>-111.61216824854964</v>
+        <v>-130.46683317885336</v>
       </c>
       <c r="AF17">
         <f t="shared" ref="AF17:AF28" si="21">2*0.95*0.0000000567*(((BE17+$B$7)+273)^4-(X17+273)^4)</f>
-        <v>-12.411606180682513</v>
+        <v>-14.521343049563937</v>
       </c>
       <c r="AG17">
         <f t="shared" ref="AG17:AG28" si="22">V17+AF17+AD17+AE17</f>
-        <v>-6.5863545900384679E-2</v>
+        <v>-21.030265345085553</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -4257,11 +4257,11 @@
       </c>
       <c r="O18">
         <f t="shared" si="4"/>
-        <v>282.04725078623846</v>
+        <v>276.9969845687034</v>
       </c>
       <c r="P18">
         <f t="shared" si="5"/>
-        <v>27.945966469335026</v>
+        <v>27.445573113317472</v>
       </c>
       <c r="Q18">
         <f t="shared" si="6"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="R18">
         <f t="shared" si="7"/>
-        <v>0.41999500050648098</v>
+        <v>0.40367652254637809</v>
       </c>
       <c r="S18">
         <f t="shared" si="8"/>
@@ -4277,11 +4277,11 @@
       </c>
       <c r="T18">
         <f t="shared" si="9"/>
-        <v>0.37528578048483674</v>
+        <v>0.36219081878296278</v>
       </c>
       <c r="U18">
         <f t="shared" si="10"/>
-        <v>0.23817272242504395</v>
+        <v>0.229740270729545</v>
       </c>
       <c r="V18">
         <f t="shared" si="11"/>
@@ -4293,11 +4293,11 @@
       </c>
       <c r="X18">
         <f t="shared" si="13"/>
-        <v>27.883852612898416</v>
+        <v>28.0105</v>
       </c>
       <c r="Y18">
         <f t="shared" si="14"/>
-        <v>3.7692206119290033</v>
+        <v>3.7971631741462151</v>
       </c>
       <c r="Z18">
         <f t="shared" si="15"/>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="AC18">
         <f t="shared" si="18"/>
-        <v>0.77610461259800312</v>
+        <v>0.80404717481521493</v>
       </c>
       <c r="AD18">
         <f t="shared" si="19"/>
@@ -4321,15 +4321,15 @@
       </c>
       <c r="AE18">
         <f t="shared" si="20"/>
-        <v>-127.74746659239695</v>
+        <v>-141.00284180670619</v>
       </c>
       <c r="AF18">
         <f t="shared" si="21"/>
-        <v>-14.239879013389697</v>
+        <v>-15.72740212836341</v>
       </c>
       <c r="AG18">
         <f t="shared" si="22"/>
-        <v>-8.6705552951329423E-2</v>
+        <v>-14.829603882234295</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -4922,11 +4922,11 @@
       </c>
       <c r="O19">
         <f t="shared" si="4"/>
-        <v>298.63373886695518</v>
+        <v>291.83174989394934</v>
       </c>
       <c r="P19">
         <f t="shared" si="5"/>
-        <v>29.587756148716782</v>
+        <v>28.913835004297063</v>
       </c>
       <c r="Q19">
         <f t="shared" si="6"/>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="R19">
         <f t="shared" si="7"/>
-        <v>0.49349722797550044</v>
+        <v>0.46392058705245243</v>
       </c>
       <c r="S19">
         <f t="shared" si="8"/>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="T19">
         <f t="shared" si="9"/>
-        <v>0.43296789291297916</v>
+        <v>0.41000662384999181</v>
       </c>
       <c r="U19">
         <f t="shared" si="10"/>
-        <v>0.27542215370530082</v>
+        <v>0.26057409716204916</v>
       </c>
       <c r="V19">
         <f t="shared" si="11"/>
@@ -4958,11 +4958,11 @@
       </c>
       <c r="X19">
         <f t="shared" si="13"/>
-        <v>27.777980468924898</v>
+        <v>27.971800000000002</v>
       </c>
       <c r="Y19">
         <f t="shared" si="14"/>
-        <v>3.7459995955770609</v>
+        <v>3.7886055750353025</v>
       </c>
       <c r="Z19">
         <f t="shared" si="15"/>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AC19">
         <f t="shared" si="18"/>
-        <v>0.76399772803326105</v>
+        <v>0.80660370749150267</v>
       </c>
       <c r="AD19">
         <f t="shared" si="19"/>
@@ -4986,15 +4986,15 @@
       </c>
       <c r="AE19">
         <f t="shared" si="20"/>
-        <v>-111.36033625022348</v>
+        <v>-131.64433617570984</v>
       </c>
       <c r="AF19">
         <f t="shared" si="21"/>
-        <v>-12.410918341671421</v>
+        <v>-14.68576469610154</v>
       </c>
       <c r="AG19">
         <f t="shared" si="22"/>
-        <v>-6.5898911719116882E-2</v>
+        <v>-22.624745191635583</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -5587,11 +5587,11 @@
       </c>
       <c r="O20">
         <f t="shared" si="4"/>
-        <v>298.08148176626639</v>
+        <v>291.14372177168752</v>
       </c>
       <c r="P20">
         <f t="shared" si="5"/>
-        <v>29.531105285843438</v>
+        <v>28.843777379279711</v>
       </c>
       <c r="Q20">
         <f t="shared" si="6"/>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="R20">
         <f t="shared" si="7"/>
-        <v>0.48624350834810565</v>
+        <v>0.45688530018447898</v>
       </c>
       <c r="S20">
         <f t="shared" si="8"/>
@@ -5607,11 +5607,11 @@
       </c>
       <c r="T20">
         <f t="shared" si="9"/>
-        <v>0.42741758562084181</v>
+        <v>0.40454069858485275</v>
       </c>
       <c r="U20">
         <f t="shared" si="10"/>
-        <v>0.27182593256630228</v>
+        <v>0.25703939113595115</v>
       </c>
       <c r="V20">
         <f t="shared" si="11"/>
@@ -5623,11 +5623,11 @@
       </c>
       <c r="X20">
         <f t="shared" si="13"/>
-        <v>27.79087320204551</v>
+        <v>27.988800000000001</v>
       </c>
       <c r="Y20">
         <f t="shared" si="14"/>
-        <v>3.7488206768880814</v>
+        <v>3.7923626525739516</v>
       </c>
       <c r="Z20">
         <f t="shared" si="15"/>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="AC20">
         <f t="shared" si="18"/>
-        <v>0.77325562070408127</v>
+        <v>0.81679759638995142</v>
       </c>
       <c r="AD20">
         <f t="shared" si="19"/>
@@ -5651,15 +5651,15 @@
       </c>
       <c r="AE20">
         <f t="shared" si="20"/>
-        <v>-111.47926830198784</v>
+        <v>-132.21342564677917</v>
       </c>
       <c r="AF20">
         <f t="shared" si="21"/>
-        <v>-12.413593192341231</v>
+        <v>-14.736992482331853</v>
       </c>
       <c r="AG20">
         <f t="shared" si="22"/>
-        <v>-6.5916034987907324E-2</v>
+        <v>-23.123472669769853</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -6252,11 +6252,11 @@
       </c>
       <c r="O21">
         <f t="shared" si="4"/>
-        <v>300.50277377178833</v>
+        <v>293.75589283477166</v>
       </c>
       <c r="P21">
         <f t="shared" si="5"/>
-        <v>29.769598771392772</v>
+        <v>29.101212466892708</v>
       </c>
       <c r="Q21">
         <f t="shared" si="6"/>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="R21">
         <f t="shared" si="7"/>
-        <v>0.49356879837737405</v>
+        <v>0.46408616574573219</v>
       </c>
       <c r="S21">
         <f t="shared" si="8"/>
@@ -6272,11 +6272,11 @@
       </c>
       <c r="T21">
         <f t="shared" si="9"/>
-        <v>0.43309329650009409</v>
+        <v>0.41019917465118122</v>
       </c>
       <c r="U21">
         <f t="shared" si="10"/>
-        <v>0.27549689247274062</v>
+        <v>0.26069273167221041</v>
       </c>
       <c r="V21">
         <f t="shared" si="11"/>
@@ -6288,11 +6288,11 @@
       </c>
       <c r="X21">
         <f t="shared" si="13"/>
-        <v>27.812025629626561</v>
+        <v>28.005500000000001</v>
       </c>
       <c r="Y21">
         <f t="shared" si="14"/>
-        <v>3.7534530919524469</v>
+        <v>3.7960565933926573</v>
       </c>
       <c r="Z21">
         <f t="shared" si="15"/>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="AC21">
         <f t="shared" si="18"/>
-        <v>0.76656456346744672</v>
+        <v>0.80916806490765714</v>
       </c>
       <c r="AD21">
         <f t="shared" si="19"/>
@@ -6316,15 +6316,15 @@
       </c>
       <c r="AE21">
         <f t="shared" si="20"/>
-        <v>-110.84319157215349</v>
+        <v>-131.11812497541848</v>
       </c>
       <c r="AF21">
         <f t="shared" si="21"/>
-        <v>-12.34138699033705</v>
+        <v>-14.612949243383905</v>
       </c>
       <c r="AG21">
         <f t="shared" si="22"/>
-        <v>-6.5130761413414007E-2</v>
+        <v>-22.611626417725262</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -6917,11 +6917,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="4"/>
-        <v>302.68273019204503</v>
+        <v>295.90695731048896</v>
       </c>
       <c r="P22">
         <f t="shared" si="5"/>
-        <v>29.98351325339323</v>
+        <v>29.312310519536503</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="R22">
         <f t="shared" si="7"/>
-        <v>0.49678393907313834</v>
+        <v>0.46670482860679907</v>
       </c>
       <c r="S22">
         <f t="shared" si="8"/>
@@ -6937,11 +6937,11 @@
       </c>
       <c r="T22">
         <f t="shared" si="9"/>
-        <v>0.43566196002250951</v>
+        <v>0.41232845239396942</v>
       </c>
       <c r="U22">
         <f t="shared" si="10"/>
-        <v>0.27715114814909503</v>
+        <v>0.26206093072163372</v>
       </c>
       <c r="V22">
         <f t="shared" si="11"/>
@@ -6953,11 +6953,11 @@
       </c>
       <c r="X22">
         <f t="shared" si="13"/>
-        <v>27.814277423188102</v>
+        <v>28.009599999999999</v>
       </c>
       <c r="Y22">
         <f t="shared" si="14"/>
-        <v>3.7539465323302998</v>
+        <v>3.7969639688435239</v>
       </c>
       <c r="Z22">
         <f t="shared" si="15"/>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="AC22">
         <f t="shared" si="18"/>
-        <v>0.76336868257003987</v>
+        <v>0.80638611908326396</v>
       </c>
       <c r="AD22">
         <f t="shared" si="19"/>
@@ -6981,15 +6981,15 @@
       </c>
       <c r="AE22">
         <f t="shared" si="20"/>
-        <v>-110.61007561311867</v>
+        <v>-131.11411652228432</v>
       </c>
       <c r="AF22">
         <f t="shared" si="21"/>
-        <v>-12.294678017977875</v>
+        <v>-14.588012485600792</v>
       </c>
       <c r="AG22">
         <f t="shared" si="22"/>
-        <v>-6.4635300901400683E-2</v>
+        <v>-22.862010677689966</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -7521,7 +7521,7 @@
         <v>26.097300000000001</v>
       </c>
       <c r="GZ22">
-        <v>450</v>
+        <v>715</v>
       </c>
       <c r="HA22">
         <v>0</v>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="O23">
         <f t="shared" si="4"/>
-        <v>187.86439073470595</v>
+        <v>182.77551092270988</v>
       </c>
       <c r="P23">
         <f t="shared" si="5"/>
-        <v>18.610574520694069</v>
+        <v>18.106450367108469</v>
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="R23">
         <f t="shared" si="7"/>
-        <v>0.49968786034958745</v>
+        <v>0.46418013814892795</v>
       </c>
       <c r="S23">
         <f t="shared" si="8"/>
@@ -7602,11 +7602,11 @@
       </c>
       <c r="T23">
         <f t="shared" si="9"/>
-        <v>0.43784381984258847</v>
+        <v>0.4103078981842016</v>
       </c>
       <c r="U23">
         <f t="shared" si="10"/>
-        <v>0.27856845154025545</v>
+        <v>0.26075975236053106</v>
       </c>
       <c r="V23">
         <f t="shared" si="11"/>
@@ -7618,11 +7618,11 @@
       </c>
       <c r="X23">
         <f t="shared" si="13"/>
-        <v>27.765660363587674</v>
+        <v>27.996200000000002</v>
       </c>
       <c r="Y23">
         <f t="shared" si="14"/>
-        <v>3.7433055429189923</v>
+        <v>3.7939991015056953</v>
       </c>
       <c r="Z23">
         <f t="shared" si="15"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="AC23">
         <f t="shared" si="18"/>
-        <v>0.75857042749399195</v>
+        <v>0.80926398608069494</v>
       </c>
       <c r="AD23">
         <f t="shared" si="19"/>
@@ -7646,15 +7646,15 @@
       </c>
       <c r="AE23">
         <f t="shared" si="20"/>
-        <v>-110.80371001919747</v>
+        <v>-134.98088711319986</v>
       </c>
       <c r="AF23">
         <f t="shared" si="21"/>
-        <v>-12.322152959758032</v>
+        <v>-15.02814371137721</v>
       </c>
       <c r="AG23">
         <f t="shared" si="22"/>
-        <v>-6.4967592387347395E-2</v>
+        <v>-26.948135438008876</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -8247,11 +8247,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="4"/>
-        <v>185.93756129703962</v>
+        <v>181.13861368763162</v>
       </c>
       <c r="P24">
         <f t="shared" si="5"/>
-        <v>18.418457395039169</v>
+        <v>17.943086999362617</v>
       </c>
       <c r="Q24">
         <f t="shared" si="6"/>
@@ -8259,7 +8259,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="7"/>
-        <v>0.48722125140762806</v>
+        <v>0.45522531154542473</v>
       </c>
       <c r="S24">
         <f t="shared" si="8"/>
@@ -8267,11 +8267,11 @@
       </c>
       <c r="T24">
         <f t="shared" si="9"/>
-        <v>0.42826104288356986</v>
+        <v>0.40331473106016913</v>
       </c>
       <c r="U24">
         <f t="shared" si="10"/>
-        <v>0.27236363643978267</v>
+        <v>0.25624066340470475</v>
       </c>
       <c r="V24">
         <f t="shared" si="11"/>
@@ -8283,11 +8283,11 @@
       </c>
       <c r="X24">
         <f t="shared" si="13"/>
-        <v>27.73955263151586</v>
+        <v>27.9558</v>
       </c>
       <c r="Y24">
         <f t="shared" si="14"/>
-        <v>3.7376021195192775</v>
+        <v>3.7850724689681865</v>
       </c>
       <c r="Z24">
         <f t="shared" si="15"/>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="AC24">
         <f t="shared" si="18"/>
-        <v>0.77074931288379744</v>
+        <v>0.81821966233270649</v>
       </c>
       <c r="AD24">
         <f t="shared" si="19"/>
@@ -8311,15 +8311,15 @@
       </c>
       <c r="AE24">
         <f t="shared" si="20"/>
-        <v>-111.67696945584034</v>
+        <v>-134.36880976701863</v>
       </c>
       <c r="AF24">
         <f t="shared" si="21"/>
-        <v>-12.408150209576801</v>
+        <v>-14.945541955774958</v>
       </c>
       <c r="AG24">
         <f t="shared" si="22"/>
-        <v>-6.5903304366415227E-2</v>
+        <v>-25.295135361742894</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -8912,11 +8912,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="4"/>
-        <v>183.85873697956688</v>
+        <v>179.61795032830281</v>
       </c>
       <c r="P25">
         <f t="shared" si="5"/>
-        <v>18.21285472053323</v>
+        <v>17.792766817999482</v>
       </c>
       <c r="Q25">
         <f t="shared" si="6"/>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="7"/>
-        <v>0.47385792459449305</v>
+        <v>0.44687664768595131</v>
       </c>
       <c r="S25">
         <f t="shared" si="8"/>
@@ -8932,11 +8932,11 @@
       </c>
       <c r="T25">
         <f t="shared" si="9"/>
-        <v>0.41787149935845908</v>
+        <v>0.39672447518935267</v>
       </c>
       <c r="U25">
         <f t="shared" si="10"/>
-        <v>0.26564658242782191</v>
+        <v>0.25198814634711331</v>
       </c>
       <c r="V25">
         <f t="shared" si="11"/>
@@ -8948,11 +8948,11 @@
       </c>
       <c r="X25">
         <f t="shared" si="13"/>
-        <v>27.802415631202862</v>
+        <v>27.992699999999999</v>
       </c>
       <c r="Y25">
         <f t="shared" si="14"/>
-        <v>3.7513478683623989</v>
+        <v>3.7932250286207077</v>
       </c>
       <c r="Z25">
         <f t="shared" si="15"/>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="AC25">
         <f t="shared" si="18"/>
-        <v>0.78903928875589857</v>
+        <v>0.83091644901420736</v>
       </c>
       <c r="AD25">
         <f t="shared" si="19"/>
@@ -8976,15 +8976,15 @@
       </c>
       <c r="AE25">
         <f t="shared" si="20"/>
-        <v>-111.81018198668866</v>
+        <v>-131.77023255881588</v>
       </c>
       <c r="AF25">
         <f t="shared" si="21"/>
-        <v>-12.435244528275366</v>
+        <v>-14.669103733913241</v>
       </c>
       <c r="AG25">
         <f t="shared" si="22"/>
-        <v>-6.6136643265451767E-2</v>
+        <v>-22.260046421030552</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -9577,11 +9577,11 @@
       </c>
       <c r="O26">
         <f t="shared" si="4"/>
-        <v>197.54782864094153</v>
+        <v>191.74980847978239</v>
       </c>
       <c r="P26">
         <f t="shared" si="5"/>
-        <v>19.571833049553245</v>
+        <v>18.997400602520859</v>
       </c>
       <c r="Q26">
         <f t="shared" si="6"/>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="7"/>
-        <v>0.59319246266650671</v>
+        <v>0.53783582779404193</v>
       </c>
       <c r="S26">
         <f t="shared" si="8"/>
@@ -9597,11 +9597,11 @@
       </c>
       <c r="T26">
         <f t="shared" si="9"/>
-        <v>0.50816586940238018</v>
+        <v>0.46692874355745012</v>
       </c>
       <c r="U26">
         <f t="shared" si="10"/>
-        <v>0.32422229031843308</v>
+        <v>0.29741874926676509</v>
       </c>
       <c r="V26">
         <f t="shared" si="11"/>
@@ -9613,11 +9613,11 @@
       </c>
       <c r="X26">
         <f t="shared" si="13"/>
-        <v>27.775460449767543</v>
+        <v>28.044499999999999</v>
       </c>
       <c r="Y26">
         <f t="shared" si="14"/>
-        <v>3.7454484022822405</v>
+        <v>3.8046953896249991</v>
       </c>
       <c r="Z26">
         <f t="shared" si="15"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="AC26">
         <f t="shared" si="18"/>
-        <v>0.67342447635110014</v>
+        <v>0.73267146369385872</v>
       </c>
       <c r="AD26">
         <f t="shared" si="19"/>
@@ -9641,15 +9641,15 @@
       </c>
       <c r="AE26">
         <f t="shared" si="20"/>
-        <v>-106.57071219802137</v>
+        <v>-134.79758053520629</v>
       </c>
       <c r="AF26">
         <f t="shared" si="21"/>
-        <v>-11.849895620798684</v>
+        <v>-15.008699354439532</v>
       </c>
       <c r="AG26">
         <f t="shared" si="22"/>
-        <v>-6.006172715049729E-2</v>
+        <v>-31.445733797976288</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -10242,11 +10242,11 @@
       </c>
       <c r="O27">
         <f t="shared" si="4"/>
-        <v>206.4698622506682</v>
+        <v>199.27174332669935</v>
       </c>
       <c r="P27">
         <f t="shared" si="5"/>
-        <v>20.459023557329807</v>
+        <v>19.745764571109589</v>
       </c>
       <c r="Q27">
         <f t="shared" si="6"/>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="7"/>
-        <v>0.70790232768637829</v>
+        <v>0.61446527044881916</v>
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
@@ -10262,11 +10262,11 @@
       </c>
       <c r="T27">
         <f t="shared" si="9"/>
-        <v>0.59027655750887664</v>
+        <v>0.52372801619356546</v>
       </c>
       <c r="U27">
         <f t="shared" si="10"/>
-        <v>0.37785229089865185</v>
+        <v>0.33435999578315545</v>
       </c>
       <c r="V27">
         <f t="shared" si="11"/>
@@ -10278,11 +10278,11 @@
       </c>
       <c r="X27">
         <f t="shared" si="13"/>
-        <v>27.806229240662844</v>
+        <v>28.1478</v>
       </c>
       <c r="Y27">
         <f t="shared" si="14"/>
-        <v>3.7521831770692295</v>
+        <v>3.8276600563428085</v>
       </c>
       <c r="Z27">
         <f t="shared" si="15"/>
@@ -10298,7 +10298,7 @@
       </c>
       <c r="AC27">
         <f t="shared" si="18"/>
-        <v>0.59607917127793009</v>
+        <v>0.67155605055150902</v>
       </c>
       <c r="AD27">
         <f t="shared" si="19"/>
@@ -10306,15 +10306,15 @@
       </c>
       <c r="AE27">
         <f t="shared" si="20"/>
-        <v>-102.51912114531616</v>
+        <v>-138.35627819572747</v>
       </c>
       <c r="AF27">
         <f t="shared" si="21"/>
-        <v>-11.404925284974611</v>
+        <v>-15.41800204337831</v>
       </c>
       <c r="AG27">
         <f t="shared" si="22"/>
-        <v>-5.5601025204012444E-2</v>
+        <v>-39.905834834018975</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -10907,11 +10907,11 @@
       </c>
       <c r="O28">
         <f t="shared" si="4"/>
-        <v>212.17301633609901</v>
+        <v>204.18261834575065</v>
       </c>
       <c r="P28">
         <f t="shared" si="5"/>
-        <v>21.020700461723344</v>
+        <v>20.22906462779147</v>
       </c>
       <c r="Q28">
         <f t="shared" si="6"/>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="R28">
         <f t="shared" si="7"/>
-        <v>0.8032530897802852</v>
+        <v>0.67420055589013972</v>
       </c>
       <c r="S28">
         <f t="shared" si="8"/>
@@ -10927,11 +10927,11 @@
       </c>
       <c r="T28">
         <f t="shared" si="9"/>
-        <v>0.65514824189771259</v>
+        <v>0.56647909752651326</v>
       </c>
       <c r="U28">
         <f t="shared" si="10"/>
-        <v>0.42048247525016563</v>
+        <v>0.36228514094641806</v>
       </c>
       <c r="V28">
         <f t="shared" si="11"/>
@@ -10943,11 +10943,11 @@
       </c>
       <c r="X28">
         <f t="shared" si="13"/>
-        <v>28.127059799767782</v>
+        <v>28.512899999999998</v>
       </c>
       <c r="Y28">
         <f t="shared" si="14"/>
-        <v>3.8230396163822951</v>
+        <v>3.9097974314520778</v>
       </c>
       <c r="Z28">
         <f t="shared" si="15"/>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="AC28">
         <f t="shared" si="18"/>
-        <v>0.55613413794417488</v>
+        <v>0.64289195301395763</v>
       </c>
       <c r="AD28">
         <f t="shared" si="19"/>
@@ -10971,15 +10971,15 @@
       </c>
       <c r="AE28">
         <f t="shared" si="20"/>
-        <v>-97.108429441376131</v>
+        <v>-137.53346014103968</v>
       </c>
       <c r="AF28">
         <f t="shared" si="21"/>
-        <v>-10.855614644412706</v>
+        <v>-15.404323003239803</v>
       </c>
       <c r="AG28">
         <f t="shared" si="22"/>
-        <v>-5.0145462542644736E-2</v>
+        <v>-45.023884521033324</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -11511,7 +11511,7 @@
         <v>25.941500000000001</v>
       </c>
       <c r="GZ28">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="HA28">
         <v>0</v>
